--- a/project/uploads/93/split_output/23备件要求.xlsx
+++ b/project/uploads/93/split_output/23备件要求.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E164EFE-B083-4B9C-A109-01196212EEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E25725-D83E-4EAA-BE4E-AF3C0C2399DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{B1606420-6217-40A0-90F1-8B9CA63E2761}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{ED8AC057-A76D-4AA0-9C4D-D539804FEF64}"/>
   </bookViews>
   <sheets>
     <sheet name="23备件要求" sheetId="1" r:id="rId1"/>
@@ -1642,7 +1642,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4B64E4-4DED-4274-A447-FD2AE38B43D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB66165A-C07F-46E2-B3C1-7E5AC4FCE6FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="9525"/>
-          <a:ext cx="7911465" cy="929640"/>
+          <a:ext cx="7912735" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,7 +1712,7 @@
         <xdr:cNvPr id="3" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7117E0F3-D7B4-4690-A6E5-7CB2BFEF8527}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4E056E-39C8-4B9A-BDA8-2855B0374CFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,8 +1728,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="224790" y="1024890"/>
-          <a:ext cx="5720715" cy="5011420"/>
+          <a:off x="224790" y="986790"/>
+          <a:ext cx="5718175" cy="4820920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1760,7 +1760,7 @@
         <xdr:cNvPr id="4" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E1BB36-42B2-4E5E-9387-11904ACA4228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4E6A60-0D20-4C92-B224-3E8B8846C4DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,8 +1776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="6386830"/>
-          <a:ext cx="5821680" cy="4848225"/>
+          <a:off x="161925" y="6142990"/>
+          <a:ext cx="5819140" cy="4665345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7388,7 +7388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF6C790-008A-4A31-BA9A-274DE8295AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5D3018-2D4C-417C-AE54-520913EEE9AC}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7398,14 +7398,14 @@
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="41.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="23.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:5" x14ac:dyDescent="0.25">
@@ -7416,7 +7416,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" location="目录!B26" display="返回" xr:uid="{78A4E73D-95C8-48BE-9F77-20A9243BD8E5}"/>
+    <hyperlink ref="E1" location="目录!B26" display="返回" xr:uid="{8E4C4F38-14F2-4AD4-A107-6E9A08C8E1B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
